--- a/results/metric_df/UEA-I_metrics.xlsx
+++ b/results/metric_df/UEA-I_metrics.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,342 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>glycan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>binding_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sasa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>has_multi_node_motifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.528127523312708</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.346787610201794</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.057597373596624</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.162304469992177</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.822085034059461</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4456879832318703</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.474660024377276</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6.886293454185985</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.90170621541335</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0828338083473565</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3.727253196689237</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.569905915454178</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.07532320667243141</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3.419172138929145</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.022714362562547</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.37883078618528</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3.496947085659928</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.34727688863881</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.197419301657273</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3.346616244917194</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9918811636990688</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2830121418291967</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)', 'Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6.493081341348088</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.342883445993724</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1750850165433314</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3.362486045967387</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.302091379100984</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1914726002652398</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3.375043197745113</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.210960590183663</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>